--- a/input/test_scenario/output/MatrixModel_8.xlsx
+++ b/input/test_scenario/output/MatrixModel_8.xlsx
@@ -163,7 +163,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>4.3</v>
+        <v>4.075</v>
       </c>
     </row>
   </sheetData>
@@ -210,10 +210,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -227,17 +227,17 @@
         <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>0.21250000000000002</v>
+        <v>0.275</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.1375</v>
+        <v>0.175</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1375</v>
+        <v>0.175</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5125</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="4">
@@ -336,17 +336,17 @@
         <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>0.25</v>
+        <v>0.325</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.4375</v>
+        <v>0.325</v>
       </c>
       <c r="F3" t="n">
-        <v>0.17500000000000002</v>
+        <v>0.175</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1375</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="4">
@@ -371,11 +371,11 @@
       </c>
       <c r="C5"/>
       <c r="D5" t="n">
-        <v>0.38749999999999996</v>
+        <v>0.35</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="n">
-        <v>0.6125</v>
+        <v>0.65</v>
       </c>
       <c r="G5"/>
     </row>
@@ -451,10 +451,10 @@
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.5375000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="F3" t="n">
-        <v>0.46249999999999997</v>
+        <v>0.4</v>
       </c>
       <c r="G3"/>
     </row>
@@ -467,12 +467,12 @@
       </c>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.35000000000000003</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5">
@@ -484,16 +484,16 @@
       </c>
       <c r="C5"/>
       <c r="D5" t="n">
-        <v>0.47500000000000003</v>
+        <v>0.325</v>
       </c>
       <c r="E5" t="n">
-        <v>0.25</v>
+        <v>0.325</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1375</v>
+        <v>0.175</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1375</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="6">
@@ -505,12 +505,12 @@
       </c>
       <c r="C6"/>
       <c r="D6" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.42500000000000004</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
